--- a/_test/00/TestControl.xlsx
+++ b/_test/00/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72444AB5-3FD3-4F9D-A2F9-B60544B76A8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104055DB-A5E8-47BF-9045-C87DFA280B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>thumbnail</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>!pos</t>
-  </si>
-  <si>
-    <t>50,100</t>
   </si>
   <si>
     <t>!uuid</t>
@@ -252,66 +249,11 @@
     <t>bg test[r]</t>
   </si>
   <si>
-    <t>100,250,title/button_start.png,START</t>
-  </si>
-  <si>
     <t xml:space="preserve">@wait time = 200
 </t>
   </si>
   <si>
-    <t>678,161</t>
-  </si>
-  <si>
-    <t>322,366</t>
-  </si>
-  <si>
-    <t>72,367</t>
-  </si>
-  <si>
     <t>100004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;------------------------------
-;    [[state]]
-;    [[state-cmt]]
-*[[state]]
-[iscript]
-    f.curstate = '[[state]]';
-    f.nextstate ='';
-    f.yesno=0;
-[endscript]
-&lt;&lt;&lt;?init
-[[init]]
- &gt;&gt;&gt;
-&lt;&lt;&lt;?initscript
-[iscript]
-    [[initscript]]
-[endscript]
-&gt;&gt;&gt;
-&lt;&lt;&lt;?bg
-@bg storage="[[bg]]"
-&gt;&gt;&gt;
-&lt;&lt;&lt;?button
-[iscript]
-    f.buttonval='';
-[endscript]
-[[button-&gt;@makebutton]]
-&gt;&gt;&gt;
-&lt;&lt;&lt;?wait
-[[wait]]
-&gt;&gt;&gt;
-*[[state]]___branch
-[[branch]]
-[iscript]
-    if (f.nextstate == '') {
-        f.nextstate = '[[nextstate]]';
-    }
-[endscript]
-[jump target=&amp;f.nextstate]
-&lt;&lt;&lt;?button
-[[button-&gt;@makelabel]]
-&gt;&gt;&gt;
-</t>
   </si>
   <si>
     <t xml:space="preserve">[setting]
@@ -396,13 +338,89 @@
 </t>
   </si>
   <si>
-    <t>br_BTNVAL_START(S_END);</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/16 14:59:08
+    <t>S_0003</t>
+  </si>
+  <si>
+    <t>S_0004</t>
+  </si>
+  <si>
+    <t>[cm]
+[clearfix]</t>
+  </si>
+  <si>
+    <t>room.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100,250,title/button_start.png,YES
+100,320,title/button_start.png,NO
+</t>
+  </si>
+  <si>
+    <t>br_BTNVAL_YES(S_0003);
+br_BTNVAL_NO(S_0004);</t>
+  </si>
+  <si>
+    <t>68,40</t>
+  </si>
+  <si>
+    <t>871,121</t>
+  </si>
+  <si>
+    <t>54,214</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>100006</t>
+  </si>
+  <si>
+    <t>S_0005</t>
+  </si>
+  <si>
+    <t>S_0006</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>204,402</t>
+  </si>
+  <si>
+    <t>415,249</t>
+  </si>
+  <si>
+    <t>363,770</t>
+  </si>
+  <si>
+    <t>660,365</t>
+  </si>
+  <si>
+    <t>654,535</t>
+  </si>
+  <si>
+    <t>100007</t>
+  </si>
+  <si>
+    <t>100008</t>
+  </si>
+  <si>
+    <t>button-cmt</t>
+  </si>
+  <si>
+    <t>clickable</t>
+  </si>
+  <si>
+    <t>clickable-cmt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/16 20:39:56
 ; * pssgEditor version : 0.10.22165.398860d799084c44c8f4e43bcd7dd516e175dba9
 psggfile=@@@
 TestControl.psgg
@@ -420,7 +438,7 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Changed an arrow direction
+Initilized
 @@@
 target_pathdir=@@@
 /
@@ -428,7 +446,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":50,"y":100}},{"Key":"S_END","Value":{"x":678,"y":161}},{"Key":"S_0001","Value":{"x":72,"y":367}},{"Key":"S_0002","Value":{"x":322,"y":366}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":68,"y":40}},{"Key":"S_END","Value":{"x":871,"y":121}},{"Key":"S_0001","Value":{"x":54,"y":214}},{"Key":"S_0002","Value":{"x":204,"y":402}},{"Key":"S_0003","Value":{"x":415,"y":249}},{"Key":"S_0004","Value":{"x":363,"y":770}},{"Key":"S_0005","Value":{"x":660,"y":365}},{"Key":"S_0006","Value":{"x":654,"y":535}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -456,6 +474,57 @@
 comment_block_height=45
 line_space=-1
 </t>
+  </si>
+  <si>
+    <t>;------------------------------
+;    [[state]]
+;    [[state-cmt]]
+*[[state]]
+[iscript]
+    f.curstate = '[[state]]';
+    f.nextstate ='';
+    f.yesno=0;
+[endscript]
+&lt;&lt;&lt;?init
+[[init]]
+ &gt;&gt;&gt;
+&lt;&lt;&lt;?initscript
+[iscript]
+    [[initscript]]
+[endscript]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?bg
+@bg storage="[[bg]]"
+&gt;&gt;&gt;
+&lt;&lt;&lt;?button
+[iscript]
+    f.buttonval='';
+[endscript]
+[[button-&gt;@makebutton]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?clickable
+[iscript]
+    f.clickableval='';
+[endscript]
+[[clickable-&gt;@makeclickable]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?wait
+[[wait]]
+&gt;&gt;&gt;
+*[[state]]___branch
+[[branch]]
+[iscript]
+    if (f.nextstate == '') {
+        f.nextstate = '[[nextstate]]';
+    }
+[endscript]
+[jump target=&amp;f.nextstate]
+&lt;&lt;&lt;?button
+[[button-&gt;@makebuttonlabel]]
+&gt;&gt;&gt;
+&lt;&lt;&lt;?clickable
+[[clickable-&gt;@makeclickablelabel]]
+&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1001,13 +1070,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1017,26 +1086,38 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1051,13 +1132,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1068,13 +1161,25 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1085,50 +1190,74 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="11" customFormat="1">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="11" customFormat="1">
+      <c r="H7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -1137,7 +1266,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
@@ -1146,7 +1275,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -1155,14 +1284,14 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="11" customFormat="1">
+    <row r="12" spans="1:11" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -1171,17 +1300,23 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
@@ -1190,110 +1325,180 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:7" s="11" customFormat="1">
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="37.5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="75">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="15" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" s="16" customFormat="1"/>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="56.25">
-      <c r="B22" s="16" t="s">
+    <row r="24" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="16" customFormat="1"/>
+    <row r="26" spans="1:11" s="16" customFormat="1" ht="56.25">
+      <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="16" customFormat="1">
+      <c r="B27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1">
+      <c r="B28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="16" customFormat="1">
-      <c r="B23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="16" customFormat="1">
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>33</v>
+      <c r="H28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1538,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1558,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/_test/00/TestControl.xlsx
+++ b/_test/00/TestControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104055DB-A5E8-47BF-9045-C87DFA280B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1DC47C-9D00-4258-BE5B-1D109195B315}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>thumbnail</t>
   </si>
@@ -201,20 +201,6 @@
   </si>
   <si>
     <t>[s]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=TestControl_created.ks
-:enc=utf-8
-::
-[iscript]
-    f.curstate = '';
-    f.nextstate = '';
-    f.yesno = 0;
-    f.buttonval='';
-[endscript]
-@jump target='S_START'
-$contents2$
-</t>
   </si>
   <si>
     <t>S_0001</t>
@@ -387,18 +373,9 @@
     <t>YES</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>204,402</t>
-  </si>
-  <si>
     <t>415,249</t>
   </si>
   <si>
-    <t>363,770</t>
-  </si>
-  <si>
     <t>660,365</t>
   </si>
   <si>
@@ -420,60 +397,48 @@
     <t>clickable-cmt</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/09/16 20:39:56
-; * pssgEditor version : 0.10.22165.398860d799084c44c8f4e43bcd7dd516e175dba9
-psggfile=@@@
-TestControl.psgg
-@@@
-xlsfile=@@@
-TestControl.xlsx
-@@@
-guid=@@@
-72a996a8-78bc-4888-947f-2c6c358d7715
-@@@
-bitmap_width=5000
-bitmap_height=2000
-c_statec_cmt=1
-c_thumbnail=1
-c_contents=1
-force_display_outpin=0
-last_action=@@@
-Initilized
-@@@
-target_pathdir=@@@
-/
-@@@
-state_location_list=@@@
-@@@
-fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":68,"y":40}},{"Key":"S_END","Value":{"x":871,"y":121}},{"Key":"S_0001","Value":{"x":54,"y":214}},{"Key":"S_0002","Value":{"x":204,"y":402}},{"Key":"S_0003","Value":{"x":415,"y":249}},{"Key":"S_0004","Value":{"x":363,"y":770}},{"Key":"S_0005","Value":{"x":660,"y":365}},{"Key":"S_0006","Value":{"x":654,"y":535}}]}]
-@@@
-linecolor_data=@@@
-[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
-@@@
-use_external_command=0
-external_command=@@@
-@@@
-source_editor=@@@
-"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
-@@@
-label_show=0
-label_text=@@@
-test
-@@@
-option_delete_thisstring=1
-option_delete_br_string=1
-option_delete_bracket_string=1
-option_delete_s_state_string=1
-font_name=@@@
-MS UI Gothic
-@@@
-font_size=11
-state_width=140
-state_height=20
-comment_block_height=45
-line_space=-1
+    <t>50,100,100,100,A0
+50,200,100,100,A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=TestControl_created.ks
+:enc=utf-8
+::
+[iscript]
+    f.curstate = '';
+    f.nextstate = '';
+    f.yesno = 0;
+    f.butval='';
+    f.clkval='';
+[endscript]
+@jump target='S_START'
+$contents2$
 </t>
+  </si>
+  <si>
+    <t>66,401</t>
+  </si>
+  <si>
+    <t>S_0007</t>
+  </si>
+  <si>
+    <t>NO-A0</t>
+  </si>
+  <si>
+    <t>NO-A1</t>
+  </si>
+  <si>
+    <t>br_CLKVAL_A0(S_0006);
+br_CLKVAL_A1(S_0007);</t>
+  </si>
+  <si>
+    <t>354,587</t>
+  </si>
+  <si>
+    <t>672,687</t>
+  </si>
+  <si>
+    <t>100009</t>
   </si>
   <si>
     <t>;------------------------------
@@ -498,13 +463,13 @@
 &gt;&gt;&gt;
 &lt;&lt;&lt;?button
 [iscript]
-    f.buttonval='';
+    f.butval='';
 [endscript]
 [[button-&gt;@makebutton]]
 &gt;&gt;&gt;
 &lt;&lt;&lt;?clickable
 [iscript]
-    f.clickableval='';
+    f.clkval='';
 [endscript]
 [[clickable-&gt;@makeclickable]]
 &gt;&gt;&gt;
@@ -512,19 +477,89 @@
 [[wait]]
 &gt;&gt;&gt;
 *[[state]]___branch
+;
+; BRANCH
+;
 [[branch]]
+&lt;&lt;&lt;?nextstate
 [iscript]
     if (f.nextstate == '') {
         f.nextstate = '[[nextstate]]';
     }
 [endscript]
+&gt;&gt;&gt;
 [jump target=&amp;f.nextstate]
 &lt;&lt;&lt;?button
+;
+; BUTTON LABEL
+;
 [[button-&gt;@makebuttonlabel]]
 &gt;&gt;&gt;
 &lt;&lt;&lt;?clickable
+;
+; CLICK LABEL
+;
 [[clickable-&gt;@makeclickablelabel]]
-&gt;&gt;&gt;</t>
+&gt;&gt;&gt;
+;
+; END OF [[state]]
+;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/09/16 22:44:24
+; * pssgEditor version : 0.10.22912.0bddc26002cf50d0023d3ef55e383e55ec6281e5
+psggfile=@@@
+TestControl.psgg
+@@@
+xlsfile=@@@
+TestControl.xlsx
+@@@
+guid=@@@
+72a996a8-78bc-4888-947f-2c6c358d7715
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":68,"y":40}},{"Key":"S_END","Value":{"x":871,"y":121}},{"Key":"S_0001","Value":{"x":54,"y":214}},{"Key":"S_0002","Value":{"x":66,"y":401}},{"Key":"S_0003","Value":{"x":415,"y":249}},{"Key":"S_0004","Value":{"x":354,"y":587}},{"Key":"S_0005","Value":{"x":660,"y":365}},{"Key":"S_0006","Value":{"x":654,"y":535}},{"Key":"S_0007","Value":{"x":672,"y":687}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=45
+line_space=-1
+</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1086,7 +1121,7 @@
     <col min="4" max="16384" width="15.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1116,8 +1151,11 @@
       <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1">
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1132,25 +1170,28 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1">
+      <c r="L2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1161,25 +1202,28 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="7" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1190,27 +1234,27 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>4</v>
@@ -1218,46 +1262,52 @@
       <c r="K5" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1">
+      <c r="L5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="11" customFormat="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="H7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="11" customFormat="1">
+        <v>66</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -1266,7 +1316,7 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>12</v>
@@ -1275,7 +1325,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -1284,14 +1334,14 @@
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:11" s="11" customFormat="1">
+    <row r="12" spans="1:12" s="11" customFormat="1">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -1300,23 +1350,23 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="G12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>15</v>
@@ -1325,51 +1375,54 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+      <c r="I17" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>16</v>
@@ -1383,24 +1436,27 @@
         <v>25</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="18.75" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:11" s="11" customFormat="1">
+    <row r="22" spans="1:12" s="11" customFormat="1">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:11" s="13" customFormat="1" ht="75">
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="75">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
         <v>17</v>
@@ -1409,70 +1465,79 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="16" customFormat="1"/>
-    <row r="26" spans="1:11" s="16" customFormat="1" ht="56.25">
+    <row r="25" spans="1:12" s="16" customFormat="1"/>
+    <row r="26" spans="1:12" s="16" customFormat="1" ht="56.25">
       <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="16" customFormat="1">
+        <v>30</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="16" customFormat="1">
       <c r="B27" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="H27" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1">
+      <c r="L27" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="16" customFormat="1">
       <c r="B28" s="16" t="s">
         <v>20</v>
       </c>
@@ -1483,22 +1548,25 @@
         <v>22</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="J28" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1586,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1606,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1648,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="18" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
